--- a/artfynd/A 44065-2022.xlsx
+++ b/artfynd/A 44065-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104580193</v>
+        <v>104580187</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541768.3912389341</v>
+        <v>541883.3580507152</v>
       </c>
       <c r="R2" t="n">
-        <v>7208697.051254596</v>
+        <v>7208716.437207839</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104580227</v>
+        <v>104580190</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>542138.2948434793</v>
+        <v>541880.0525673805</v>
       </c>
       <c r="R3" t="n">
-        <v>7208634.550104474</v>
+        <v>7208710.466497418</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104580200</v>
+        <v>104580185</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541830.8958404836</v>
+        <v>541958.5585233027</v>
       </c>
       <c r="R4" t="n">
-        <v>7208499.880393611</v>
+        <v>7208671.369767522</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104580233</v>
+        <v>104580186</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>89734</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542214.5408812598</v>
+        <v>541959.841215348</v>
       </c>
       <c r="R5" t="n">
-        <v>7208665.674100334</v>
+        <v>7208670.541485483</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1112,6 +1112,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>2211101311</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1128,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104580209</v>
+        <v>104580189</v>
       </c>
       <c r="B6" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>541924.6177364632</v>
+        <v>541880.0109594867</v>
       </c>
       <c r="R6" t="n">
-        <v>7208524.049236563</v>
+        <v>7208713.428048602</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104580182</v>
+        <v>104580227</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542210.0790351678</v>
+        <v>542138.2948434793</v>
       </c>
       <c r="R7" t="n">
-        <v>7208651.646266516</v>
+        <v>7208634.550104474</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1315,7 +1325,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1325,7 +1335,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104580207</v>
+        <v>104580233</v>
       </c>
       <c r="B8" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1378,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>541878.9905469074</v>
+        <v>542214.5408812598</v>
       </c>
       <c r="R8" t="n">
-        <v>7208484.474284597</v>
+        <v>7208665.674100334</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1427,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104580208</v>
+        <v>104580182</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>541924.6058360038</v>
+        <v>542210.0790351678</v>
       </c>
       <c r="R9" t="n">
-        <v>7208524.895447173</v>
+        <v>7208651.646266516</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1539,7 +1549,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1559,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104580216</v>
+        <v>104580234</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,39 +1602,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542067.4236301633</v>
+        <v>542212.8045638972</v>
       </c>
       <c r="R10" t="n">
-        <v>7208522.675453577</v>
+        <v>7208668.611702808</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1656,7 +1661,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1666,7 +1671,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1693,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104580206</v>
+        <v>104580181</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,21 +1714,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>541878.9905469074</v>
+        <v>542331.9307094704</v>
       </c>
       <c r="R11" t="n">
-        <v>7208484.474284597</v>
+        <v>7208723.196798791</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1768,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1778,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104580234</v>
+        <v>104580226</v>
       </c>
       <c r="B12" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1850,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542212.8045638972</v>
+        <v>542134.0289521199</v>
       </c>
       <c r="R12" t="n">
-        <v>7208668.611702808</v>
+        <v>7208636.605677763</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1880,7 +1885,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1890,7 +1895,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1917,10 +1922,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104580181</v>
+        <v>104580238</v>
       </c>
       <c r="B13" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,21 +1938,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1962,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542331.9307094704</v>
+        <v>542249.6692603645</v>
       </c>
       <c r="R13" t="n">
-        <v>7208723.196798791</v>
+        <v>7208668.287622117</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1992,7 +1997,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2002,7 +2007,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,10 +2034,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104580226</v>
+        <v>104580247</v>
       </c>
       <c r="B14" t="n">
-        <v>73698</v>
+        <v>89406</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2050,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1467</v>
+        <v>1204</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2074,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542134.0289521199</v>
+        <v>542365.2290154995</v>
       </c>
       <c r="R14" t="n">
-        <v>7208636.605677763</v>
+        <v>7208705.473801136</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2104,7 +2109,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2114,7 +2119,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2146,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104580238</v>
+        <v>104580245</v>
       </c>
       <c r="B15" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,21 +2162,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2186,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542249.6692603645</v>
+        <v>542292.5885779595</v>
       </c>
       <c r="R15" t="n">
-        <v>7208668.287622117</v>
+        <v>7208748.874324297</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2216,7 +2221,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2226,7 +2231,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2253,10 +2258,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104580202</v>
+        <v>104580180</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,39 +2274,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>541887.2949637511</v>
+        <v>542331.9006688378</v>
       </c>
       <c r="R16" t="n">
-        <v>7208466.393536837</v>
+        <v>7208725.312184754</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2370,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104580212</v>
+        <v>104580241</v>
       </c>
       <c r="B17" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,21 +2386,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>541954.6110184087</v>
+        <v>542284.6005159004</v>
       </c>
       <c r="R17" t="n">
-        <v>7208530.395831825</v>
+        <v>7208744.529409299</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2482,10 +2482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104580247</v>
+        <v>104580242</v>
       </c>
       <c r="B18" t="n">
-        <v>89406</v>
+        <v>89742</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2494,25 +2494,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>1506</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542365.2290154995</v>
+        <v>542285.871266598</v>
       </c>
       <c r="R18" t="n">
-        <v>7208705.473801136</v>
+        <v>7208744.547435502</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2594,10 +2594,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104580245</v>
+        <v>104580239</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542292.5885779595</v>
+        <v>542259.2297438007</v>
       </c>
       <c r="R19" t="n">
-        <v>7208748.874324297</v>
+        <v>7208711.163013054</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2706,10 +2706,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104580180</v>
+        <v>104580249</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,21 +2722,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>542331.9006688378</v>
+        <v>542433.6055287514</v>
       </c>
       <c r="R20" t="n">
-        <v>7208725.312184754</v>
+        <v>7208753.417358601</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2818,10 +2818,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104580241</v>
+        <v>104580225</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>73507</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,25 +2830,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542284.6005159004</v>
+        <v>542137.06590908</v>
       </c>
       <c r="R21" t="n">
-        <v>7208744.529409299</v>
+        <v>7208631.570511175</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104580242</v>
+        <v>104580228</v>
       </c>
       <c r="B22" t="n">
-        <v>89742</v>
+        <v>89406</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1506</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542285.871266598</v>
+        <v>542138.2948434793</v>
       </c>
       <c r="R22" t="n">
-        <v>7208744.547435502</v>
+        <v>7208634.550104474</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3042,10 +3042,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104580192</v>
+        <v>104580246</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3058,39 +3058,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>541768.361598277</v>
+        <v>542365.2290154995</v>
       </c>
       <c r="R23" t="n">
-        <v>7208699.166657858</v>
+        <v>7208705.473801136</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3122,7 +3117,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3132,7 +3127,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3159,10 +3154,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104580198</v>
+        <v>104580244</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3175,39 +3170,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541756.1195237732</v>
+        <v>542292.5885779595</v>
       </c>
       <c r="R24" t="n">
-        <v>7208575.005661845</v>
+        <v>7208748.874324297</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3239,7 +3229,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3249,7 +3239,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3276,7 +3266,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104580239</v>
+        <v>104580250</v>
       </c>
       <c r="B25" t="n">
         <v>77506</v>
@@ -3316,10 +3306,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542259.2297438007</v>
+        <v>542458.4944434372</v>
       </c>
       <c r="R25" t="n">
-        <v>7208711.163013054</v>
+        <v>7208760.965456374</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3351,7 +3341,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3361,7 +3351,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3388,10 +3378,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104580205</v>
+        <v>104580240</v>
       </c>
       <c r="B26" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3404,39 +3394,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>541863.4829563443</v>
+        <v>542260.1189058821</v>
       </c>
       <c r="R26" t="n">
-        <v>7208472.407012057</v>
+        <v>7208708.213468658</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3468,7 +3453,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3478,7 +3463,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3505,10 +3490,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104580195</v>
+        <v>104580236</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3521,39 +3506,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>541767.5559147828</v>
+        <v>542232.0481639864</v>
       </c>
       <c r="R27" t="n">
-        <v>7208696.193222453</v>
+        <v>7208715.855759163</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3585,7 +3565,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3595,7 +3575,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3622,10 +3602,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104580201</v>
+        <v>104580248</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3638,39 +3618,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>541833.0020567079</v>
+        <v>542431.4996614412</v>
       </c>
       <c r="R28" t="n">
-        <v>7208500.756332058</v>
+        <v>7208752.541063905</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3702,7 +3677,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3712,7 +3687,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3739,7 +3714,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104580196</v>
+        <v>104660087</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -3775,14 +3750,14 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>541730.7301026093</v>
+        <v>542281.4243606708</v>
       </c>
       <c r="R29" t="n">
-        <v>7208663.516834767</v>
+        <v>7208699.629120762</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3814,7 +3789,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3824,7 +3799,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3839,19 +3814,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104580187</v>
+        <v>104660056</v>
       </c>
       <c r="B30" t="n">
         <v>73693</v>
@@ -3887,14 +3862,14 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>541883.3580507152</v>
+        <v>542467.4800613892</v>
       </c>
       <c r="R30" t="n">
-        <v>7208716.437207839</v>
+        <v>7208754.746082969</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3926,7 +3901,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3936,7 +3911,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3951,22 +3926,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104580199</v>
+        <v>104660086</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3979,34 +3954,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>541767.1925956694</v>
+        <v>542282.8641733872</v>
       </c>
       <c r="R31" t="n">
-        <v>7208570.928968878</v>
+        <v>7208747.466893868</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4038,7 +4013,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4048,7 +4023,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4063,22 +4038,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104580249</v>
+        <v>104660064</v>
       </c>
       <c r="B32" t="n">
-        <v>73693</v>
+        <v>78596</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4087,41 +4062,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>542433.6055287514</v>
+        <v>542377.7157996765</v>
       </c>
       <c r="R32" t="n">
-        <v>7208753.417358601</v>
+        <v>7208810.594455929</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4150,7 +4125,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4160,7 +4135,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4175,22 +4150,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104580225</v>
+        <v>104660057</v>
       </c>
       <c r="B33" t="n">
-        <v>73507</v>
+        <v>89356</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4203,34 +4178,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6428</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>542137.06590908</v>
+        <v>542424.7325339405</v>
       </c>
       <c r="R33" t="n">
-        <v>7208631.570511175</v>
+        <v>7208811.263258211</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4262,7 +4237,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4272,7 +4247,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4287,22 +4262,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104580228</v>
+        <v>104660067</v>
       </c>
       <c r="B34" t="n">
-        <v>89406</v>
+        <v>56411</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4315,34 +4290,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1204</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>542138.2948434793</v>
+        <v>542314.4551710433</v>
       </c>
       <c r="R34" t="n">
-        <v>7208634.550104474</v>
+        <v>7208670.899224089</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4374,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4384,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4399,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104580190</v>
+        <v>104660072</v>
       </c>
       <c r="B35" t="n">
-        <v>89406</v>
+        <v>77588</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4427,34 +4407,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1204</v>
+        <v>864</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>541880.0525673805</v>
+        <v>542367.7491595935</v>
       </c>
       <c r="R35" t="n">
-        <v>7208710.466497418</v>
+        <v>7208736.823688965</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4486,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4496,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4511,22 +4491,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104580211</v>
+        <v>104660058</v>
       </c>
       <c r="B36" t="n">
-        <v>73678</v>
+        <v>89356</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4539,34 +4519,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6439</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>541954.6110184087</v>
+        <v>542253.8048515412</v>
       </c>
       <c r="R36" t="n">
-        <v>7208530.395831825</v>
+        <v>7208735.206364101</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4598,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4608,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4623,19 +4603,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104580246</v>
+        <v>104660088</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -4671,14 +4651,14 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>542365.2290154995</v>
+        <v>542402.9789057968</v>
       </c>
       <c r="R37" t="n">
-        <v>7208705.473801136</v>
+        <v>7208732.246685387</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4710,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4720,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4735,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104580214</v>
+        <v>104580193</v>
       </c>
       <c r="B38" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4763,39 +4743,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>542066.5764001671</v>
+        <v>541768.3912389341</v>
       </c>
       <c r="R38" t="n">
-        <v>7208522.663498325</v>
+        <v>7208697.051254596</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4827,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4837,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4864,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104580203</v>
+        <v>104580200</v>
       </c>
       <c r="B39" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4880,39 +4855,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>541886.4477179167</v>
+        <v>541830.8958404836</v>
       </c>
       <c r="R39" t="n">
-        <v>7208466.381632826</v>
+        <v>7208499.880393611</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4944,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4954,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4981,10 +4951,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104580185</v>
+        <v>104580209</v>
       </c>
       <c r="B40" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4997,21 +4967,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5021,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>541958.5585233027</v>
+        <v>541924.6177364632</v>
       </c>
       <c r="R40" t="n">
-        <v>7208671.369767522</v>
+        <v>7208524.049236563</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5056,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5066,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5093,10 +5063,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104580244</v>
+        <v>104580207</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5109,21 +5079,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5133,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>542292.5885779595</v>
+        <v>541878.9905469074</v>
       </c>
       <c r="R41" t="n">
-        <v>7208748.874324297</v>
+        <v>7208484.474284597</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5168,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5178,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5205,7 +5175,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104580210</v>
+        <v>104580208</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5245,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>541954.6110184087</v>
+        <v>541924.6058360038</v>
       </c>
       <c r="R42" t="n">
-        <v>7208530.395831825</v>
+        <v>7208524.895447173</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5280,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5290,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5317,10 +5287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104580221</v>
+        <v>104580216</v>
       </c>
       <c r="B43" t="n">
-        <v>73698</v>
+        <v>56395</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5333,34 +5303,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>542100.523456649</v>
+        <v>542067.4236301633</v>
       </c>
       <c r="R43" t="n">
-        <v>7208609.049039152</v>
+        <v>7208522.675453577</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5392,7 +5367,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5402,7 +5377,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5429,7 +5404,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104580250</v>
+        <v>104580206</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5469,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>542458.4944434372</v>
+        <v>541878.9905469074</v>
       </c>
       <c r="R44" t="n">
-        <v>7208760.965456374</v>
+        <v>7208484.474284597</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5504,7 +5479,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5514,7 +5489,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5541,10 +5516,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104580186</v>
+        <v>104580202</v>
       </c>
       <c r="B45" t="n">
-        <v>89734</v>
+        <v>56395</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5553,38 +5528,43 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>541959.841215348</v>
+        <v>541887.2949637511</v>
       </c>
       <c r="R45" t="n">
-        <v>7208670.541485483</v>
+        <v>7208466.393536837</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5616,7 +5596,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5626,7 +5606,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5637,16 +5617,6 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>2211101311</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -5663,10 +5633,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104580240</v>
+        <v>104580212</v>
       </c>
       <c r="B46" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5679,21 +5649,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5703,10 +5673,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>542260.1189058821</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R46" t="n">
-        <v>7208708.213468658</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5738,7 +5708,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5748,7 +5718,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5775,10 +5745,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104580236</v>
+        <v>104580192</v>
       </c>
       <c r="B47" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5791,34 +5761,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>542232.0481639864</v>
+        <v>541768.361598277</v>
       </c>
       <c r="R47" t="n">
-        <v>7208715.855759163</v>
+        <v>7208699.166657858</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5850,7 +5825,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5860,7 +5835,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5887,10 +5862,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104580248</v>
+        <v>104580198</v>
       </c>
       <c r="B48" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5903,34 +5878,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>542431.4996614412</v>
+        <v>541756.1195237732</v>
       </c>
       <c r="R48" t="n">
-        <v>7208752.541063905</v>
+        <v>7208575.005661845</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5962,7 +5942,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5972,7 +5952,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5999,10 +5979,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104580189</v>
+        <v>104580205</v>
       </c>
       <c r="B49" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6015,34 +5995,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>541880.0109594867</v>
+        <v>541863.4829563443</v>
       </c>
       <c r="R49" t="n">
-        <v>7208713.428048602</v>
+        <v>7208472.407012057</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6074,7 +6059,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6084,7 +6069,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6111,10 +6096,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104580197</v>
+        <v>104580195</v>
       </c>
       <c r="B50" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6127,34 +6112,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>541733.6538041134</v>
+        <v>541767.5559147828</v>
       </c>
       <c r="R50" t="n">
-        <v>7208666.519942796</v>
+        <v>7208696.193222453</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6186,7 +6176,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6196,7 +6186,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6223,10 +6213,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104580213</v>
+        <v>104580201</v>
       </c>
       <c r="B51" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6239,34 +6229,39 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>542066.5764001671</v>
+        <v>541833.0020567079</v>
       </c>
       <c r="R51" t="n">
-        <v>7208522.663498325</v>
+        <v>7208500.756332058</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6298,7 +6293,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6308,7 +6303,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6335,7 +6330,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104660087</v>
+        <v>104580196</v>
       </c>
       <c r="B52" t="n">
         <v>77506</v>
@@ -6371,14 +6366,14 @@
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>542281.4243606708</v>
+        <v>541730.7301026093</v>
       </c>
       <c r="R52" t="n">
-        <v>7208699.629120762</v>
+        <v>7208663.516834767</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6410,7 +6405,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6420,7 +6415,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6435,22 +6430,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104660069</v>
+        <v>104580199</v>
       </c>
       <c r="B53" t="n">
-        <v>73698</v>
+        <v>89410</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6463,34 +6458,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1467</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>541957.4411678994</v>
+        <v>541767.1925956694</v>
       </c>
       <c r="R53" t="n">
-        <v>7208389.51064281</v>
+        <v>7208570.928968878</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6522,7 +6517,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6532,7 +6527,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6547,22 +6542,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104660081</v>
+        <v>104580211</v>
       </c>
       <c r="B54" t="n">
-        <v>89410</v>
+        <v>73678</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6571,38 +6566,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>542027.5024151764</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R54" t="n">
-        <v>7208529.306604995</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6634,7 +6629,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6644,7 +6639,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6659,22 +6654,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104660073</v>
+        <v>104580214</v>
       </c>
       <c r="B55" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6687,34 +6682,39 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>541782.0711540411</v>
+        <v>542066.5764001671</v>
       </c>
       <c r="R55" t="n">
-        <v>7208416.248932831</v>
+        <v>7208522.663498325</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6771,22 +6771,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104660076</v>
+        <v>104580203</v>
       </c>
       <c r="B56" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6799,34 +6799,39 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>542025.1040125923</v>
+        <v>541886.4477179167</v>
       </c>
       <c r="R56" t="n">
-        <v>7208549.162598849</v>
+        <v>7208466.381632826</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6858,7 +6863,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6868,7 +6873,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6883,22 +6888,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104660056</v>
+        <v>104580210</v>
       </c>
       <c r="B57" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6911,34 +6916,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>542467.4800613892</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R57" t="n">
-        <v>7208754.746082969</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6970,7 +6975,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6980,7 +6985,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6995,22 +7000,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104660054</v>
+        <v>104580221</v>
       </c>
       <c r="B58" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7023,34 +7028,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>542049.0111340873</v>
+        <v>542100.523456649</v>
       </c>
       <c r="R58" t="n">
-        <v>7208566.427107241</v>
+        <v>7208609.049039152</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7082,7 +7087,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7092,7 +7097,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7107,22 +7112,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104660061</v>
+        <v>104580197</v>
       </c>
       <c r="B59" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7135,39 +7140,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>542000.0207586873</v>
+        <v>541733.6538041134</v>
       </c>
       <c r="R59" t="n">
-        <v>7208495.064014736</v>
+        <v>7208666.519942796</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7224,19 +7224,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104660086</v>
+        <v>104580213</v>
       </c>
       <c r="B60" t="n">
         <v>77506</v>
@@ -7272,14 +7272,14 @@
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>542282.8641733872</v>
+        <v>542066.5764001671</v>
       </c>
       <c r="R60" t="n">
-        <v>7208747.466893868</v>
+        <v>7208522.663498325</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7336,22 +7336,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104660064</v>
+        <v>104660069</v>
       </c>
       <c r="B61" t="n">
-        <v>78596</v>
+        <v>73698</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7360,25 +7360,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6462</v>
+        <v>1467</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7388,13 +7388,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>542377.7157996765</v>
+        <v>541957.4411678994</v>
       </c>
       <c r="R61" t="n">
-        <v>7208810.594455929</v>
+        <v>7208389.51064281</v>
       </c>
       <c r="S61" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7460,10 +7460,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104660083</v>
+        <v>104660081</v>
       </c>
       <c r="B62" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7476,21 +7476,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>541967.1311408941</v>
+        <v>542027.5024151764</v>
       </c>
       <c r="R62" t="n">
-        <v>7208393.455902003</v>
+        <v>7208529.306604995</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7572,10 +7572,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104660077</v>
+        <v>104660073</v>
       </c>
       <c r="B63" t="n">
-        <v>89410</v>
+        <v>77588</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7588,21 +7588,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>864</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>541812.8665031057</v>
+        <v>541782.0711540411</v>
       </c>
       <c r="R63" t="n">
-        <v>7208516.555098962</v>
+        <v>7208416.248932831</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7684,10 +7684,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104660078</v>
+        <v>104660076</v>
       </c>
       <c r="B64" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7700,21 +7700,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>541904.0426847516</v>
+        <v>542025.1040125923</v>
       </c>
       <c r="R64" t="n">
-        <v>7208329.933114159</v>
+        <v>7208549.162598849</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7796,10 +7796,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104660057</v>
+        <v>104660054</v>
       </c>
       <c r="B65" t="n">
-        <v>89356</v>
+        <v>73693</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7808,25 +7808,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7836,10 +7836,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>542424.7325339405</v>
+        <v>542049.0111340873</v>
       </c>
       <c r="R65" t="n">
-        <v>7208811.263258211</v>
+        <v>7208566.427107241</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7908,10 +7908,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104660067</v>
+        <v>104660061</v>
       </c>
       <c r="B66" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7924,16 +7924,16 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7953,10 +7953,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>542314.4551710433</v>
+        <v>542000.0207586873</v>
       </c>
       <c r="R66" t="n">
-        <v>7208670.899224089</v>
+        <v>7208495.064014736</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8025,10 +8025,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104660072</v>
+        <v>104660083</v>
       </c>
       <c r="B67" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8041,21 +8041,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8065,10 +8065,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>542367.7491595935</v>
+        <v>541967.1311408941</v>
       </c>
       <c r="R67" t="n">
-        <v>7208736.823688965</v>
+        <v>7208393.455902003</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8137,10 +8137,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>104660075</v>
+        <v>104660077</v>
       </c>
       <c r="B68" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8153,21 +8153,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8177,10 +8177,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>541781.2772625567</v>
+        <v>541812.8665031057</v>
       </c>
       <c r="R68" t="n">
-        <v>7208412.428971238</v>
+        <v>7208516.555098962</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8249,7 +8249,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104660079</v>
+        <v>104660078</v>
       </c>
       <c r="B69" t="n">
         <v>89410</v>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>541970.1084873448</v>
+        <v>541904.0426847516</v>
       </c>
       <c r="R69" t="n">
-        <v>7208392.651399266</v>
+        <v>7208329.933114159</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8361,10 +8361,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104660055</v>
+        <v>104660075</v>
       </c>
       <c r="B70" t="n">
-        <v>73693</v>
+        <v>89406</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8377,21 +8377,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8401,10 +8401,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>542117.5213644229</v>
+        <v>541781.2772625567</v>
       </c>
       <c r="R70" t="n">
-        <v>7208605.480541566</v>
+        <v>7208412.428971238</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8473,10 +8473,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104660085</v>
+        <v>104660079</v>
       </c>
       <c r="B71" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8489,21 +8489,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>542092.9350115185</v>
+        <v>541970.1084873448</v>
       </c>
       <c r="R71" t="n">
-        <v>7208576.357013171</v>
+        <v>7208392.651399266</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8585,10 +8585,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104660082</v>
+        <v>104660055</v>
       </c>
       <c r="B72" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8601,21 +8601,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>541822.1550578115</v>
+        <v>542117.5213644229</v>
       </c>
       <c r="R72" t="n">
-        <v>7208337.670818017</v>
+        <v>7208605.480541566</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8697,10 +8697,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>104660065</v>
+        <v>104660085</v>
       </c>
       <c r="B73" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8713,39 +8713,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>541985.9264890314</v>
+        <v>542092.9350115185</v>
       </c>
       <c r="R73" t="n">
-        <v>7208412.764827228</v>
+        <v>7208576.357013171</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8777,7 +8772,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8787,7 +8782,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8814,10 +8809,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>104660058</v>
+        <v>104660082</v>
       </c>
       <c r="B74" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8826,25 +8821,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8854,10 +8849,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>542253.8048515412</v>
+        <v>541822.1550578115</v>
       </c>
       <c r="R74" t="n">
-        <v>7208735.206364101</v>
+        <v>7208337.670818017</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8889,7 +8884,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8899,7 +8894,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8926,10 +8921,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>104660088</v>
+        <v>104660065</v>
       </c>
       <c r="B75" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8942,34 +8937,39 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>542402.9789057968</v>
+        <v>541985.9264890314</v>
       </c>
       <c r="R75" t="n">
-        <v>7208732.246685387</v>
+        <v>7208412.764827228</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD75" t="b">

--- a/artfynd/A 44065-2022.xlsx
+++ b/artfynd/A 44065-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104580187</v>
+        <v>104580193</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541883.3580507152</v>
+        <v>541768.3912389341</v>
       </c>
       <c r="R2" t="n">
-        <v>7208716.437207839</v>
+        <v>7208697.051254596</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104580190</v>
+        <v>104580227</v>
       </c>
       <c r="B3" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541880.0525673805</v>
+        <v>542138.2948434793</v>
       </c>
       <c r="R3" t="n">
-        <v>7208710.466497418</v>
+        <v>7208634.550104474</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104580185</v>
+        <v>104580200</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541958.5585233027</v>
+        <v>541830.8958404836</v>
       </c>
       <c r="R4" t="n">
-        <v>7208671.369767522</v>
+        <v>7208499.880393611</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104580186</v>
+        <v>104580233</v>
       </c>
       <c r="B5" t="n">
-        <v>89734</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>541959.841215348</v>
+        <v>542214.5408812598</v>
       </c>
       <c r="R5" t="n">
-        <v>7208670.541485483</v>
+        <v>7208665.674100334</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1112,16 +1112,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>2211101311</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1138,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104580189</v>
+        <v>104580209</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>541880.0109594867</v>
+        <v>541924.6177364632</v>
       </c>
       <c r="R6" t="n">
-        <v>7208713.428048602</v>
+        <v>7208524.049236563</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104580227</v>
+        <v>104580182</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542138.2948434793</v>
+        <v>542210.0790351678</v>
       </c>
       <c r="R7" t="n">
-        <v>7208634.550104474</v>
+        <v>7208651.646266516</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1325,7 +1315,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1335,7 +1325,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104580233</v>
+        <v>104580207</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542214.5408812598</v>
+        <v>541878.9905469074</v>
       </c>
       <c r="R8" t="n">
-        <v>7208665.674100334</v>
+        <v>7208484.474284597</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1437,7 +1427,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1437,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104580182</v>
+        <v>104580208</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542210.0790351678</v>
+        <v>541924.6058360038</v>
       </c>
       <c r="R9" t="n">
-        <v>7208651.646266516</v>
+        <v>7208524.895447173</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1549,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1559,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1586,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104580234</v>
+        <v>104580216</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,34 +1592,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542212.8045638972</v>
+        <v>542067.4236301633</v>
       </c>
       <c r="R10" t="n">
-        <v>7208668.611702808</v>
+        <v>7208522.675453577</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1661,7 +1656,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1671,7 +1666,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1698,10 +1693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104580181</v>
+        <v>104580206</v>
       </c>
       <c r="B11" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,21 +1709,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542331.9307094704</v>
+        <v>541878.9905469074</v>
       </c>
       <c r="R11" t="n">
-        <v>7208723.196798791</v>
+        <v>7208484.474284597</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1768,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1778,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104580226</v>
+        <v>104580234</v>
       </c>
       <c r="B12" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1821,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1850,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542134.0289521199</v>
+        <v>542212.8045638972</v>
       </c>
       <c r="R12" t="n">
-        <v>7208636.605677763</v>
+        <v>7208668.611702808</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1885,7 +1880,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1895,7 +1890,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1922,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104580238</v>
+        <v>104580181</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,21 +1933,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1962,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542249.6692603645</v>
+        <v>542331.9307094704</v>
       </c>
       <c r="R13" t="n">
-        <v>7208668.287622117</v>
+        <v>7208723.196798791</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1997,7 +1992,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2007,7 +2002,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2034,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104580247</v>
+        <v>104580226</v>
       </c>
       <c r="B14" t="n">
-        <v>89406</v>
+        <v>73698</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2074,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542365.2290154995</v>
+        <v>542134.0289521199</v>
       </c>
       <c r="R14" t="n">
-        <v>7208705.473801136</v>
+        <v>7208636.605677763</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2109,7 +2104,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2114,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2146,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104580245</v>
+        <v>104580238</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2162,21 +2157,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2186,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542292.5885779595</v>
+        <v>542249.6692603645</v>
       </c>
       <c r="R15" t="n">
-        <v>7208748.874324297</v>
+        <v>7208668.287622117</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2221,7 +2216,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2231,7 +2226,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2258,10 +2253,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104580180</v>
+        <v>104580202</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,34 +2269,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542331.9006688378</v>
+        <v>541887.2949637511</v>
       </c>
       <c r="R16" t="n">
-        <v>7208725.312184754</v>
+        <v>7208466.393536837</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2370,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104580241</v>
+        <v>104580212</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,21 +2386,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>542284.6005159004</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R17" t="n">
-        <v>7208744.529409299</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2482,10 +2482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104580242</v>
+        <v>104580247</v>
       </c>
       <c r="B18" t="n">
-        <v>89742</v>
+        <v>89406</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2494,25 +2494,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1506</v>
+        <v>1204</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542285.871266598</v>
+        <v>542365.2290154995</v>
       </c>
       <c r="R18" t="n">
-        <v>7208744.547435502</v>
+        <v>7208705.473801136</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2594,10 +2594,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104580239</v>
+        <v>104580245</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542259.2297438007</v>
+        <v>542292.5885779595</v>
       </c>
       <c r="R19" t="n">
-        <v>7208711.163013054</v>
+        <v>7208748.874324297</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2706,10 +2706,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104580249</v>
+        <v>104580180</v>
       </c>
       <c r="B20" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,21 +2722,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>542433.6055287514</v>
+        <v>542331.9006688378</v>
       </c>
       <c r="R20" t="n">
-        <v>7208753.417358601</v>
+        <v>7208725.312184754</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2818,10 +2818,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104580225</v>
+        <v>104580241</v>
       </c>
       <c r="B21" t="n">
-        <v>73507</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,25 +2830,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542137.06590908</v>
+        <v>542284.6005159004</v>
       </c>
       <c r="R21" t="n">
-        <v>7208631.570511175</v>
+        <v>7208744.529409299</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2930,10 +2930,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104580228</v>
+        <v>104580242</v>
       </c>
       <c r="B22" t="n">
-        <v>89406</v>
+        <v>89742</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1204</v>
+        <v>1506</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542138.2948434793</v>
+        <v>542285.871266598</v>
       </c>
       <c r="R22" t="n">
-        <v>7208634.550104474</v>
+        <v>7208744.547435502</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3042,10 +3042,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104580246</v>
+        <v>104580192</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3058,34 +3058,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542365.2290154995</v>
+        <v>541768.361598277</v>
       </c>
       <c r="R23" t="n">
-        <v>7208705.473801136</v>
+        <v>7208699.166657858</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3117,7 +3122,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3127,7 +3132,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3154,10 +3159,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104580244</v>
+        <v>104580198</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3170,34 +3175,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542292.5885779595</v>
+        <v>541756.1195237732</v>
       </c>
       <c r="R24" t="n">
-        <v>7208748.874324297</v>
+        <v>7208575.005661845</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3229,7 +3239,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3239,7 +3249,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3266,7 +3276,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104580250</v>
+        <v>104580239</v>
       </c>
       <c r="B25" t="n">
         <v>77506</v>
@@ -3306,10 +3316,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542458.4944434372</v>
+        <v>542259.2297438007</v>
       </c>
       <c r="R25" t="n">
-        <v>7208760.965456374</v>
+        <v>7208711.163013054</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3341,7 +3351,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3351,7 +3361,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3378,10 +3388,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104580240</v>
+        <v>104580205</v>
       </c>
       <c r="B26" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3394,34 +3404,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542260.1189058821</v>
+        <v>541863.4829563443</v>
       </c>
       <c r="R26" t="n">
-        <v>7208708.213468658</v>
+        <v>7208472.407012057</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3453,7 +3468,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3463,7 +3478,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3490,10 +3505,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104580236</v>
+        <v>104580195</v>
       </c>
       <c r="B27" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3506,34 +3521,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>542232.0481639864</v>
+        <v>541767.5559147828</v>
       </c>
       <c r="R27" t="n">
-        <v>7208715.855759163</v>
+        <v>7208696.193222453</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3565,7 +3585,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3575,7 +3595,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3602,10 +3622,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104580248</v>
+        <v>104580201</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3618,34 +3638,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>542431.4996614412</v>
+        <v>541833.0020567079</v>
       </c>
       <c r="R28" t="n">
-        <v>7208752.541063905</v>
+        <v>7208500.756332058</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3677,7 +3702,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3687,7 +3712,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3714,7 +3739,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104660087</v>
+        <v>104580196</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -3750,14 +3775,14 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>542281.4243606708</v>
+        <v>541730.7301026093</v>
       </c>
       <c r="R29" t="n">
-        <v>7208699.629120762</v>
+        <v>7208663.516834767</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3789,7 +3814,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3799,7 +3824,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3814,19 +3839,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104660056</v>
+        <v>104580187</v>
       </c>
       <c r="B30" t="n">
         <v>73693</v>
@@ -3862,14 +3887,14 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>542467.4800613892</v>
+        <v>541883.3580507152</v>
       </c>
       <c r="R30" t="n">
-        <v>7208754.746082969</v>
+        <v>7208716.437207839</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3901,7 +3926,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3911,7 +3936,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3926,22 +3951,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104660086</v>
+        <v>104580199</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3954,34 +3979,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>542282.8641733872</v>
+        <v>541767.1925956694</v>
       </c>
       <c r="R31" t="n">
-        <v>7208747.466893868</v>
+        <v>7208570.928968878</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4013,7 +4038,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4023,7 +4048,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4038,22 +4063,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104660064</v>
+        <v>104580249</v>
       </c>
       <c r="B32" t="n">
-        <v>78596</v>
+        <v>73693</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,41 +4087,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>542377.7157996765</v>
+        <v>542433.6055287514</v>
       </c>
       <c r="R32" t="n">
-        <v>7208810.594455929</v>
+        <v>7208753.417358601</v>
       </c>
       <c r="S32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4125,7 +4150,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4135,7 +4160,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4150,22 +4175,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104660057</v>
+        <v>104580225</v>
       </c>
       <c r="B33" t="n">
-        <v>89356</v>
+        <v>73507</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4178,34 +4203,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>6428</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>542424.7325339405</v>
+        <v>542137.06590908</v>
       </c>
       <c r="R33" t="n">
-        <v>7208811.263258211</v>
+        <v>7208631.570511175</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4237,7 +4262,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4247,7 +4272,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4262,22 +4287,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104660067</v>
+        <v>104580228</v>
       </c>
       <c r="B34" t="n">
-        <v>56411</v>
+        <v>89406</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4290,39 +4315,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>542314.4551710433</v>
+        <v>542138.2948434793</v>
       </c>
       <c r="R34" t="n">
-        <v>7208670.899224089</v>
+        <v>7208634.550104474</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4374,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4384,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4399,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104660072</v>
+        <v>104580190</v>
       </c>
       <c r="B35" t="n">
-        <v>77588</v>
+        <v>89406</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,34 +4427,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>542367.7491595935</v>
+        <v>541880.0525673805</v>
       </c>
       <c r="R35" t="n">
-        <v>7208736.823688965</v>
+        <v>7208710.466497418</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4486,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4496,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4491,22 +4511,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104660058</v>
+        <v>104580211</v>
       </c>
       <c r="B36" t="n">
-        <v>89356</v>
+        <v>73678</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,34 +4539,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>6439</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>542253.8048515412</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R36" t="n">
-        <v>7208735.206364101</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4598,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4608,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,19 +4623,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104660088</v>
+        <v>104580246</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -4651,14 +4671,14 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bladberget, Rödingsjön, Ås lm</t>
+          <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>542402.9789057968</v>
+        <v>542365.2290154995</v>
       </c>
       <c r="R37" t="n">
-        <v>7208732.246685387</v>
+        <v>7208705.473801136</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4710,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4720,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4735,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
+          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104580193</v>
+        <v>104580214</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,34 +4763,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>541768.3912389341</v>
+        <v>542066.5764001671</v>
       </c>
       <c r="R38" t="n">
-        <v>7208697.051254596</v>
+        <v>7208522.663498325</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4827,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4837,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4839,10 +4864,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104580200</v>
+        <v>104580203</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4855,34 +4880,39 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>541830.8958404836</v>
+        <v>541886.4477179167</v>
       </c>
       <c r="R39" t="n">
-        <v>7208499.880393611</v>
+        <v>7208466.381632826</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4944,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4954,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4951,10 +4981,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104580209</v>
+        <v>104580185</v>
       </c>
       <c r="B40" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4997,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +5021,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>541924.6177364632</v>
+        <v>541958.5585233027</v>
       </c>
       <c r="R40" t="n">
-        <v>7208524.049236563</v>
+        <v>7208671.369767522</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5056,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5066,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5063,10 +5093,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104580207</v>
+        <v>104580244</v>
       </c>
       <c r="B41" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5079,21 +5109,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5133,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>541878.9905469074</v>
+        <v>542292.5885779595</v>
       </c>
       <c r="R41" t="n">
-        <v>7208484.474284597</v>
+        <v>7208748.874324297</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5168,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5178,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5175,7 +5205,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104580208</v>
+        <v>104580210</v>
       </c>
       <c r="B42" t="n">
         <v>77506</v>
@@ -5215,10 +5245,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>541924.6058360038</v>
+        <v>541954.6110184087</v>
       </c>
       <c r="R42" t="n">
-        <v>7208524.895447173</v>
+        <v>7208530.395831825</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5280,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5290,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5317,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104580216</v>
+        <v>104580221</v>
       </c>
       <c r="B43" t="n">
-        <v>56395</v>
+        <v>73698</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5303,39 +5333,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>542067.4236301633</v>
+        <v>542100.523456649</v>
       </c>
       <c r="R43" t="n">
-        <v>7208522.675453577</v>
+        <v>7208609.049039152</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5367,7 +5392,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5377,7 +5402,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5404,7 +5429,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104580206</v>
+        <v>104580250</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5444,10 +5469,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>541878.9905469074</v>
+        <v>542458.4944434372</v>
       </c>
       <c r="R44" t="n">
-        <v>7208484.474284597</v>
+        <v>7208760.965456374</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5479,7 +5504,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5489,7 +5514,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5516,10 +5541,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104580202</v>
+        <v>104580186</v>
       </c>
       <c r="B45" t="n">
-        <v>56395</v>
+        <v>89734</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5528,43 +5553,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>541887.2949637511</v>
+        <v>541959.841215348</v>
       </c>
       <c r="R45" t="n">
-        <v>7208466.393536837</v>
+        <v>7208670.541485483</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5596,7 +5616,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5606,7 +5626,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5617,6 +5637,16 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>2211101311</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -5633,10 +5663,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104580212</v>
+        <v>104580240</v>
       </c>
       <c r="B46" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5649,21 +5679,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5673,10 +5703,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>541954.6110184087</v>
+        <v>542260.1189058821</v>
       </c>
       <c r="R46" t="n">
-        <v>7208530.395831825</v>
+        <v>7208708.213468658</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5708,7 +5738,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5718,7 +5748,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5745,10 +5775,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104580192</v>
+        <v>104580236</v>
       </c>
       <c r="B47" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5761,39 +5791,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>541768.361598277</v>
+        <v>542232.0481639864</v>
       </c>
       <c r="R47" t="n">
-        <v>7208699.166657858</v>
+        <v>7208715.855759163</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5825,7 +5850,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5835,7 +5860,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5862,10 +5887,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104580198</v>
+        <v>104580248</v>
       </c>
       <c r="B48" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5878,39 +5903,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>541756.1195237732</v>
+        <v>542431.4996614412</v>
       </c>
       <c r="R48" t="n">
-        <v>7208575.005661845</v>
+        <v>7208752.541063905</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5942,7 +5962,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5952,7 +5972,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5979,10 +5999,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104580205</v>
+        <v>104580189</v>
       </c>
       <c r="B49" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5995,39 +6015,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>541863.4829563443</v>
+        <v>541880.0109594867</v>
       </c>
       <c r="R49" t="n">
-        <v>7208472.407012057</v>
+        <v>7208713.428048602</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6059,7 +6074,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6069,7 +6084,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6096,10 +6111,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104580195</v>
+        <v>104580197</v>
       </c>
       <c r="B50" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6112,39 +6127,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>541767.5559147828</v>
+        <v>541733.6538041134</v>
       </c>
       <c r="R50" t="n">
-        <v>7208696.193222453</v>
+        <v>7208666.519942796</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6176,7 +6186,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6186,7 +6196,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6213,10 +6223,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104580201</v>
+        <v>104580213</v>
       </c>
       <c r="B51" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6229,39 +6239,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Rödingsjön NO, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>541833.0020567079</v>
+        <v>542066.5764001671</v>
       </c>
       <c r="R51" t="n">
-        <v>7208500.756332058</v>
+        <v>7208522.663498325</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6293,7 +6298,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6303,7 +6308,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6330,7 +6335,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104580196</v>
+        <v>104660087</v>
       </c>
       <c r="B52" t="n">
         <v>77506</v>
@@ -6366,14 +6371,14 @@
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>541730.7301026093</v>
+        <v>542281.4243606708</v>
       </c>
       <c r="R52" t="n">
-        <v>7208663.516834767</v>
+        <v>7208699.629120762</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6405,7 +6410,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6415,7 +6420,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6430,22 +6435,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104580199</v>
+        <v>104660069</v>
       </c>
       <c r="B53" t="n">
-        <v>89410</v>
+        <v>73698</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6458,34 +6463,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>1467</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>541767.1925956694</v>
+        <v>541957.4411678994</v>
       </c>
       <c r="R53" t="n">
-        <v>7208570.928968878</v>
+        <v>7208389.51064281</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6517,7 +6522,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6527,7 +6532,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6542,22 +6547,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104580211</v>
+        <v>104660081</v>
       </c>
       <c r="B54" t="n">
-        <v>73678</v>
+        <v>89410</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6566,38 +6571,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>541954.6110184087</v>
+        <v>542027.5024151764</v>
       </c>
       <c r="R54" t="n">
-        <v>7208530.395831825</v>
+        <v>7208529.306604995</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6629,7 +6634,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6639,7 +6644,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6654,22 +6659,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104580214</v>
+        <v>104660073</v>
       </c>
       <c r="B55" t="n">
-        <v>56395</v>
+        <v>77588</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6682,39 +6687,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>542066.5764001671</v>
+        <v>541782.0711540411</v>
       </c>
       <c r="R55" t="n">
-        <v>7208522.663498325</v>
+        <v>7208416.248932831</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6771,22 +6771,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104580203</v>
+        <v>104660076</v>
       </c>
       <c r="B56" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6799,39 +6799,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>541886.4477179167</v>
+        <v>542025.1040125923</v>
       </c>
       <c r="R56" t="n">
-        <v>7208466.381632826</v>
+        <v>7208549.162598849</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6863,7 +6858,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6873,7 +6868,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6888,22 +6883,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104580210</v>
+        <v>104660056</v>
       </c>
       <c r="B57" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6916,34 +6911,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>541954.6110184087</v>
+        <v>542467.4800613892</v>
       </c>
       <c r="R57" t="n">
-        <v>7208530.395831825</v>
+        <v>7208754.746082969</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6975,7 +6970,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6985,7 +6980,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7000,22 +6995,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104580221</v>
+        <v>104660054</v>
       </c>
       <c r="B58" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7028,34 +7023,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>542100.523456649</v>
+        <v>542049.0111340873</v>
       </c>
       <c r="R58" t="n">
-        <v>7208609.049039152</v>
+        <v>7208566.427107241</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7087,7 +7082,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7097,7 +7092,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7112,22 +7107,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>104580197</v>
+        <v>104660061</v>
       </c>
       <c r="B59" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7140,34 +7135,39 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>541733.6538041134</v>
+        <v>542000.0207586873</v>
       </c>
       <c r="R59" t="n">
-        <v>7208666.519942796</v>
+        <v>7208495.064014736</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7224,19 +7224,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104580213</v>
+        <v>104660086</v>
       </c>
       <c r="B60" t="n">
         <v>77506</v>
@@ -7272,14 +7272,14 @@
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Rödingsjön NO, Ås lm</t>
+          <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>542066.5764001671</v>
+        <v>542282.8641733872</v>
       </c>
       <c r="R60" t="n">
-        <v>7208522.663498325</v>
+        <v>7208747.466893868</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7336,22 +7336,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Nils Åslund, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström, Nils Åslund</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104660069</v>
+        <v>104660064</v>
       </c>
       <c r="B61" t="n">
-        <v>73698</v>
+        <v>78596</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7360,25 +7360,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1467</v>
+        <v>6462</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7388,13 +7388,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>541957.4411678994</v>
+        <v>542377.7157996765</v>
       </c>
       <c r="R61" t="n">
-        <v>7208389.51064281</v>
+        <v>7208810.594455929</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7460,10 +7460,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>104660081</v>
+        <v>104660083</v>
       </c>
       <c r="B62" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7476,21 +7476,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>542027.5024151764</v>
+        <v>541967.1311408941</v>
       </c>
       <c r="R62" t="n">
-        <v>7208529.306604995</v>
+        <v>7208393.455902003</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7572,10 +7572,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104660073</v>
+        <v>104660077</v>
       </c>
       <c r="B63" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7588,21 +7588,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>541782.0711540411</v>
+        <v>541812.8665031057</v>
       </c>
       <c r="R63" t="n">
-        <v>7208416.248932831</v>
+        <v>7208516.555098962</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7684,10 +7684,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104660076</v>
+        <v>104660078</v>
       </c>
       <c r="B64" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7700,21 +7700,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>542025.1040125923</v>
+        <v>541904.0426847516</v>
       </c>
       <c r="R64" t="n">
-        <v>7208549.162598849</v>
+        <v>7208329.933114159</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7796,10 +7796,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104660054</v>
+        <v>104660057</v>
       </c>
       <c r="B65" t="n">
-        <v>73693</v>
+        <v>89356</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7808,25 +7808,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7836,10 +7836,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>542049.0111340873</v>
+        <v>542424.7325339405</v>
       </c>
       <c r="R65" t="n">
-        <v>7208566.427107241</v>
+        <v>7208811.263258211</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7908,10 +7908,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104660061</v>
+        <v>104660067</v>
       </c>
       <c r="B66" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7924,16 +7924,16 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7953,10 +7953,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>542000.0207586873</v>
+        <v>542314.4551710433</v>
       </c>
       <c r="R66" t="n">
-        <v>7208495.064014736</v>
+        <v>7208670.899224089</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8025,10 +8025,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104660083</v>
+        <v>104660072</v>
       </c>
       <c r="B67" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8041,21 +8041,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8065,10 +8065,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>541967.1311408941</v>
+        <v>542367.7491595935</v>
       </c>
       <c r="R67" t="n">
-        <v>7208393.455902003</v>
+        <v>7208736.823688965</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8137,10 +8137,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>104660077</v>
+        <v>104660075</v>
       </c>
       <c r="B68" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8153,21 +8153,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8177,10 +8177,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>541812.8665031057</v>
+        <v>541781.2772625567</v>
       </c>
       <c r="R68" t="n">
-        <v>7208516.555098962</v>
+        <v>7208412.428971238</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8249,7 +8249,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104660078</v>
+        <v>104660079</v>
       </c>
       <c r="B69" t="n">
         <v>89410</v>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>541904.0426847516</v>
+        <v>541970.1084873448</v>
       </c>
       <c r="R69" t="n">
-        <v>7208329.933114159</v>
+        <v>7208392.651399266</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8361,10 +8361,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104660075</v>
+        <v>104660055</v>
       </c>
       <c r="B70" t="n">
-        <v>89406</v>
+        <v>73693</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8377,21 +8377,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1204</v>
+        <v>6440</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8401,10 +8401,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>541781.2772625567</v>
+        <v>542117.5213644229</v>
       </c>
       <c r="R70" t="n">
-        <v>7208412.428971238</v>
+        <v>7208605.480541566</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8473,10 +8473,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104660079</v>
+        <v>104660085</v>
       </c>
       <c r="B71" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8489,21 +8489,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>541970.1084873448</v>
+        <v>542092.9350115185</v>
       </c>
       <c r="R71" t="n">
-        <v>7208392.651399266</v>
+        <v>7208576.357013171</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8585,10 +8585,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104660055</v>
+        <v>104660082</v>
       </c>
       <c r="B72" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8601,21 +8601,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>542117.5213644229</v>
+        <v>541822.1550578115</v>
       </c>
       <c r="R72" t="n">
-        <v>7208605.480541566</v>
+        <v>7208337.670818017</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8697,10 +8697,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>104660085</v>
+        <v>104660065</v>
       </c>
       <c r="B73" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8713,34 +8713,39 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>542092.9350115185</v>
+        <v>541985.9264890314</v>
       </c>
       <c r="R73" t="n">
-        <v>7208576.357013171</v>
+        <v>7208412.764827228</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8772,7 +8777,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8782,7 +8787,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8809,10 +8814,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>104660082</v>
+        <v>104660058</v>
       </c>
       <c r="B74" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8821,25 +8826,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8849,10 +8854,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>541822.1550578115</v>
+        <v>542253.8048515412</v>
       </c>
       <c r="R74" t="n">
-        <v>7208337.670818017</v>
+        <v>7208735.206364101</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8884,7 +8889,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8894,7 +8899,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8921,10 +8926,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>104660065</v>
+        <v>104660088</v>
       </c>
       <c r="B75" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8937,39 +8942,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Bladberget, Rödingsjön, Ås lm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>541985.9264890314</v>
+        <v>542402.9789057968</v>
       </c>
       <c r="R75" t="n">
-        <v>7208412.764827228</v>
+        <v>7208732.246685387</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
